--- a/documents/Github整理.xlsx
+++ b/documents/Github整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\仕事関係\WORK_GROUP\#11.Java課題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatta\Desktop\Git\workgroup\CLibPrj\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8012495F-D98F-43DB-8278-FEF9C3E00264}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AFE5A6-141F-41A2-8C00-2D10366858DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18270" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="18270" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="177">
   <si>
     <t>●</t>
     <phoneticPr fontId="2"/>
@@ -352,19 +352,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>checkoutの機能が、２つあるっぽい。これは、ただブランチを切り替えるだけ</t>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>これは、指定したブランチのコミットまでした状態を、ローカルに反映させる</t>
     <rPh sb="4" eb="6">
       <t>シテイ</t>
@@ -706,25 +693,6 @@
   </si>
   <si>
     <t>3.</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ブランチ名の前に、-b 指定すると、切替も同時にできる</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ドウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1360,10 +1328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>git branch test</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>git remote add [名前] [URL]</t>
     <rPh sb="16" eb="18">
       <t>ナマエ</t>
@@ -1387,10 +1351,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・git clone</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・git branch test</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1558,6 +1518,72 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>ノチノチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・git clone https://github.com/worktaro0001/CLibPrj.git</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>git reflog</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HEADの移動履歴を見る</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>checkoutの機能が、２つあるっぽい。これは、ただブランチを切り替えるだけ。-bをつけると、ブランチの作成+切替になる</t>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>キリカエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>origin/[ブランチ名]..HEAD で、リモートとの差分を確認</t>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HEAD~でコミット時の差分を確認</t>
+    <rPh sb="10" eb="11">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2257,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A02F5F6-3199-4DC5-BC6B-642D1CC7EB2C}">
   <dimension ref="B2:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -2276,12 +2302,12 @@
     </row>
     <row r="3" spans="2:3" ht="18">
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -2291,12 +2317,12 @@
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -2316,7 +2342,7 @@
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -2326,221 +2352,219 @@
     </row>
     <row r="14" spans="2:3">
       <c r="C14" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="D25" s="33" t="s">
-        <v>147</v>
-      </c>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="D31" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="D37" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="D49" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="D52" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="C53" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="D57" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="D58" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="D59" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="C62" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="2:4">
       <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2554,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7712DAD9-AB6A-4764-A5D6-AC8DCDE2CCA8}">
-  <dimension ref="B2:BX60"/>
+  <dimension ref="B2:BX61"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS46" sqref="AS46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="15"/>
@@ -2580,7 +2604,7 @@
     </row>
     <row r="4" spans="2:76" ht="18">
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:76" ht="18">
@@ -2678,7 +2702,7 @@
     </row>
     <row r="8" spans="2:76">
       <c r="C8" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -2757,7 +2781,7 @@
     <row r="9" spans="2:76">
       <c r="C9" s="12"/>
       <c r="D9" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2836,7 +2860,7 @@
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -2852,7 +2876,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="15"/>
       <c r="S10" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
@@ -2959,9 +2983,7 @@
       <c r="AP11" s="16"/>
       <c r="AQ11" s="17"/>
       <c r="AR11" s="16"/>
-      <c r="AS11" s="16" t="s">
-        <v>81</v>
-      </c>
+      <c r="AS11" s="16"/>
       <c r="AT11" s="16"/>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
@@ -3120,7 +3142,7 @@
       <c r="AQ13" s="23"/>
       <c r="AR13" s="22"/>
       <c r="AS13" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AT13" s="22"/>
       <c r="AU13" s="22"/>
@@ -3202,7 +3224,7 @@
       <c r="AQ14" s="26"/>
       <c r="AR14" s="25"/>
       <c r="AS14" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AT14" s="25"/>
       <c r="AU14" s="25"/>
@@ -3256,7 +3278,7 @@
       <c r="Q15" s="26"/>
       <c r="R15" s="24"/>
       <c r="S15" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
@@ -3284,7 +3306,7 @@
       <c r="AQ15" s="26"/>
       <c r="AR15" s="25"/>
       <c r="AS15" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AT15" s="25"/>
       <c r="AU15" s="25"/>
@@ -3366,7 +3388,7 @@
       <c r="AQ16" s="26"/>
       <c r="AR16" s="25"/>
       <c r="AS16" s="25" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="AT16" s="25"/>
       <c r="AU16" s="25"/>
@@ -3448,7 +3470,7 @@
       <c r="AQ17" s="20"/>
       <c r="AR17" s="19"/>
       <c r="AS17" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AT17" s="19"/>
       <c r="AU17" s="19"/>
@@ -3526,7 +3548,7 @@
       <c r="AQ18" s="8"/>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -3604,7 +3626,7 @@
       <c r="AQ19" s="23"/>
       <c r="AR19" s="22"/>
       <c r="AS19" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT19" s="22"/>
       <c r="AU19" s="22"/>
@@ -3642,7 +3664,7 @@
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -3658,7 +3680,7 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="24"/>
       <c r="S20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T20" s="25"/>
       <c r="U20" s="25"/>
@@ -3686,7 +3708,7 @@
       <c r="AQ20" s="26"/>
       <c r="AR20" s="25"/>
       <c r="AS20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AT20" s="25"/>
       <c r="AU20" s="25"/>
@@ -3724,7 +3746,7 @@
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -3740,7 +3762,7 @@
       <c r="Q21" s="20"/>
       <c r="R21" s="18"/>
       <c r="S21" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
@@ -3768,7 +3790,7 @@
       <c r="AQ21" s="20"/>
       <c r="AR21" s="19"/>
       <c r="AS21" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AT21" s="19"/>
       <c r="AU21" s="19"/>
@@ -3846,7 +3868,7 @@
       <c r="AQ22" s="23"/>
       <c r="AR22" s="22"/>
       <c r="AS22" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AT22" s="22"/>
       <c r="AU22" s="22"/>
@@ -3884,7 +3906,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3900,7 +3922,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="9"/>
       <c r="S23" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
@@ -3928,7 +3950,7 @@
       <c r="AQ23" s="11"/>
       <c r="AR23" s="10"/>
       <c r="AS23" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
@@ -3965,7 +3987,7 @@
     <row r="24" spans="3:76">
       <c r="C24" s="12"/>
       <c r="D24" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -4124,7 +4146,7 @@
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -4206,7 +4228,7 @@
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
       <c r="E27" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -4222,7 +4244,7 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="18"/>
       <c r="S27" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
@@ -4250,7 +4272,7 @@
       <c r="AQ27" s="20"/>
       <c r="AR27" s="19"/>
       <c r="AS27" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AT27" s="19"/>
       <c r="AU27" s="19"/>
@@ -4328,7 +4350,7 @@
       <c r="AQ28" s="23"/>
       <c r="AR28" s="22"/>
       <c r="AS28" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AT28" s="22"/>
       <c r="AU28" s="22"/>
@@ -4366,7 +4388,7 @@
       <c r="C29" s="24"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
@@ -4382,7 +4404,7 @@
       <c r="Q29" s="26"/>
       <c r="R29" s="24"/>
       <c r="S29" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T29" s="25"/>
       <c r="U29" s="25"/>
@@ -4446,7 +4468,7 @@
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -4462,7 +4484,7 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="18"/>
       <c r="S30" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
@@ -4490,7 +4512,7 @@
       <c r="AQ30" s="20"/>
       <c r="AR30" s="19"/>
       <c r="AS30" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT30" s="19"/>
       <c r="AU30" s="19"/>
@@ -4568,7 +4590,7 @@
       <c r="AQ31" s="23"/>
       <c r="AR31" s="22"/>
       <c r="AS31" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AT31" s="22"/>
       <c r="AU31" s="22"/>
@@ -4606,7 +4628,7 @@
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -4622,7 +4644,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="9"/>
       <c r="S32" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
@@ -4685,7 +4707,7 @@
     <row r="33" spans="3:76">
       <c r="C33" s="12"/>
       <c r="D33" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -4764,7 +4786,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4780,7 +4802,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="3"/>
       <c r="S34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -4808,7 +4830,7 @@
       <c r="AQ34" s="5"/>
       <c r="AR34" s="4"/>
       <c r="AS34" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AT34" s="4"/>
       <c r="AU34" s="4"/>
@@ -4861,7 +4883,7 @@
       <c r="R35" s="6"/>
       <c r="S35" s="7"/>
       <c r="T35" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -4888,7 +4910,7 @@
       <c r="AQ35" s="8"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AT35" s="7"/>
       <c r="AU35" s="7"/>
@@ -4941,7 +4963,7 @@
       <c r="R36" s="6"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
@@ -4968,7 +4990,7 @@
       <c r="AQ36" s="8"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AT36" s="7"/>
       <c r="AU36" s="7"/>
@@ -5021,7 +5043,7 @@
       <c r="R37" s="9"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
@@ -5048,7 +5070,7 @@
       <c r="AQ37" s="11"/>
       <c r="AR37" s="10"/>
       <c r="AS37" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AT37" s="10"/>
       <c r="AU37" s="10"/>
@@ -5084,7 +5106,7 @@
     </row>
     <row r="38" spans="3:76">
       <c r="C38" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -5164,7 +5186,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -5180,7 +5202,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="3"/>
       <c r="S39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
@@ -5244,7 +5266,7 @@
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
       <c r="E40" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -5260,7 +5282,7 @@
       <c r="Q40" s="26"/>
       <c r="R40" s="24"/>
       <c r="S40" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
@@ -5340,7 +5362,7 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="6"/>
       <c r="S41" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -5482,7 +5504,7 @@
       <c r="C43" s="24"/>
       <c r="D43" s="25"/>
       <c r="E43" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
@@ -5498,7 +5520,7 @@
       <c r="Q43" s="26"/>
       <c r="R43" s="24"/>
       <c r="S43" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
@@ -5559,406 +5581,408 @@
       <c r="BX43" s="26"/>
     </row>
     <row r="44" spans="3:76">
-      <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="19"/>
-      <c r="AH44" s="19"/>
-      <c r="AI44" s="19"/>
-      <c r="AJ44" s="19"/>
-      <c r="AK44" s="19"/>
-      <c r="AL44" s="19"/>
-      <c r="AM44" s="19"/>
-      <c r="AN44" s="19"/>
-      <c r="AO44" s="19"/>
-      <c r="AP44" s="19"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="19"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="19"/>
-      <c r="AU44" s="19"/>
-      <c r="AV44" s="19"/>
-      <c r="AW44" s="19"/>
-      <c r="AX44" s="19"/>
-      <c r="AY44" s="19"/>
-      <c r="AZ44" s="19"/>
-      <c r="BA44" s="19"/>
-      <c r="BB44" s="19"/>
-      <c r="BC44" s="19"/>
-      <c r="BD44" s="19"/>
-      <c r="BE44" s="19"/>
-      <c r="BF44" s="19"/>
-      <c r="BG44" s="19"/>
-      <c r="BH44" s="19"/>
-      <c r="BI44" s="19"/>
-      <c r="BJ44" s="19"/>
-      <c r="BK44" s="19"/>
-      <c r="BL44" s="19"/>
-      <c r="BM44" s="19"/>
-      <c r="BN44" s="19"/>
-      <c r="BO44" s="19"/>
-      <c r="BP44" s="19"/>
-      <c r="BQ44" s="19"/>
-      <c r="BR44" s="19"/>
-      <c r="BS44" s="19"/>
-      <c r="BT44" s="19"/>
-      <c r="BU44" s="19"/>
-      <c r="BV44" s="19"/>
-      <c r="BW44" s="19"/>
-      <c r="BX44" s="20"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="25"/>
+      <c r="AB44" s="25"/>
+      <c r="AC44" s="25"/>
+      <c r="AD44" s="25"/>
+      <c r="AE44" s="25"/>
+      <c r="AF44" s="25"/>
+      <c r="AG44" s="25"/>
+      <c r="AH44" s="25"/>
+      <c r="AI44" s="25"/>
+      <c r="AJ44" s="25"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="25"/>
+      <c r="AM44" s="25"/>
+      <c r="AN44" s="25"/>
+      <c r="AO44" s="25"/>
+      <c r="AP44" s="25"/>
+      <c r="AQ44" s="26"/>
+      <c r="AR44" s="25"/>
+      <c r="AS44" s="25"/>
+      <c r="AT44" s="25"/>
+      <c r="AU44" s="25"/>
+      <c r="AV44" s="25"/>
+      <c r="AW44" s="25"/>
+      <c r="AX44" s="25"/>
+      <c r="AY44" s="25"/>
+      <c r="AZ44" s="25"/>
+      <c r="BA44" s="25"/>
+      <c r="BB44" s="25"/>
+      <c r="BC44" s="25"/>
+      <c r="BD44" s="25"/>
+      <c r="BE44" s="25"/>
+      <c r="BF44" s="25"/>
+      <c r="BG44" s="25"/>
+      <c r="BH44" s="25"/>
+      <c r="BI44" s="25"/>
+      <c r="BJ44" s="25"/>
+      <c r="BK44" s="25"/>
+      <c r="BL44" s="25"/>
+      <c r="BM44" s="25"/>
+      <c r="BN44" s="25"/>
+      <c r="BO44" s="25"/>
+      <c r="BP44" s="25"/>
+      <c r="BQ44" s="25"/>
+      <c r="BR44" s="25"/>
+      <c r="BS44" s="25"/>
+      <c r="BT44" s="25"/>
+      <c r="BU44" s="25"/>
+      <c r="BV44" s="25"/>
+      <c r="BW44" s="25"/>
+      <c r="BX44" s="26"/>
     </row>
     <row r="45" spans="3:76">
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
-      <c r="AK45" s="22"/>
-      <c r="AL45" s="22"/>
-      <c r="AM45" s="22"/>
-      <c r="AN45" s="22"/>
-      <c r="AO45" s="22"/>
-      <c r="AP45" s="22"/>
-      <c r="AQ45" s="23"/>
-      <c r="AR45" s="22"/>
-      <c r="AS45" s="22"/>
-      <c r="AT45" s="22"/>
-      <c r="AU45" s="22"/>
-      <c r="AV45" s="22"/>
-      <c r="AW45" s="22"/>
-      <c r="AX45" s="22"/>
-      <c r="AY45" s="22"/>
-      <c r="AZ45" s="22"/>
-      <c r="BA45" s="22"/>
-      <c r="BB45" s="22"/>
-      <c r="BC45" s="22"/>
-      <c r="BD45" s="22"/>
-      <c r="BE45" s="22"/>
-      <c r="BF45" s="22"/>
-      <c r="BG45" s="22"/>
-      <c r="BH45" s="22"/>
-      <c r="BI45" s="22"/>
-      <c r="BJ45" s="22"/>
-      <c r="BK45" s="22"/>
-      <c r="BL45" s="22"/>
-      <c r="BM45" s="22"/>
-      <c r="BN45" s="22"/>
-      <c r="BO45" s="22"/>
-      <c r="BP45" s="22"/>
-      <c r="BQ45" s="22"/>
-      <c r="BR45" s="22"/>
-      <c r="BS45" s="22"/>
-      <c r="BT45" s="22"/>
-      <c r="BU45" s="22"/>
-      <c r="BV45" s="22"/>
-      <c r="BW45" s="22"/>
-      <c r="BX45" s="23"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="19"/>
+      <c r="AK45" s="19"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="19"/>
+      <c r="BB45" s="19"/>
+      <c r="BC45" s="19"/>
+      <c r="BD45" s="19"/>
+      <c r="BE45" s="19"/>
+      <c r="BF45" s="19"/>
+      <c r="BG45" s="19"/>
+      <c r="BH45" s="19"/>
+      <c r="BI45" s="19"/>
+      <c r="BJ45" s="19"/>
+      <c r="BK45" s="19"/>
+      <c r="BL45" s="19"/>
+      <c r="BM45" s="19"/>
+      <c r="BN45" s="19"/>
+      <c r="BO45" s="19"/>
+      <c r="BP45" s="19"/>
+      <c r="BQ45" s="19"/>
+      <c r="BR45" s="19"/>
+      <c r="BS45" s="19"/>
+      <c r="BT45" s="19"/>
+      <c r="BU45" s="19"/>
+      <c r="BV45" s="19"/>
+      <c r="BW45" s="19"/>
+      <c r="BX45" s="20"/>
     </row>
     <row r="46" spans="3:76">
-      <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="X46" s="22"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+      <c r="AD46" s="22"/>
+      <c r="AE46" s="22"/>
+      <c r="AF46" s="22"/>
+      <c r="AG46" s="22"/>
+      <c r="AH46" s="22"/>
+      <c r="AI46" s="22"/>
+      <c r="AJ46" s="22"/>
+      <c r="AK46" s="22"/>
+      <c r="AL46" s="22"/>
+      <c r="AM46" s="22"/>
+      <c r="AN46" s="22"/>
+      <c r="AO46" s="22"/>
+      <c r="AP46" s="22"/>
+      <c r="AQ46" s="23"/>
+      <c r="AR46" s="22"/>
+      <c r="AS46" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT46" s="22"/>
+      <c r="AU46" s="22"/>
+      <c r="AV46" s="22"/>
+      <c r="AW46" s="22"/>
+      <c r="AX46" s="22"/>
+      <c r="AY46" s="22"/>
+      <c r="AZ46" s="22"/>
+      <c r="BA46" s="22"/>
+      <c r="BB46" s="22"/>
+      <c r="BC46" s="22"/>
+      <c r="BD46" s="22"/>
+      <c r="BE46" s="22"/>
+      <c r="BF46" s="22"/>
+      <c r="BG46" s="22"/>
+      <c r="BH46" s="22"/>
+      <c r="BI46" s="22"/>
+      <c r="BJ46" s="22"/>
+      <c r="BK46" s="22"/>
+      <c r="BL46" s="22"/>
+      <c r="BM46" s="22"/>
+      <c r="BN46" s="22"/>
+      <c r="BO46" s="22"/>
+      <c r="BP46" s="22"/>
+      <c r="BQ46" s="22"/>
+      <c r="BR46" s="22"/>
+      <c r="BS46" s="22"/>
+      <c r="BT46" s="22"/>
+      <c r="BU46" s="22"/>
+      <c r="BV46" s="22"/>
+      <c r="BW46" s="22"/>
+      <c r="BX46" s="23"/>
+    </row>
+    <row r="47" spans="3:76">
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="19" t="s">
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="19"/>
-      <c r="X46" s="19"/>
-      <c r="Y46" s="19"/>
-      <c r="Z46" s="19"/>
-      <c r="AA46" s="19"/>
-      <c r="AB46" s="19"/>
-      <c r="AC46" s="19"/>
-      <c r="AD46" s="19"/>
-      <c r="AE46" s="19"/>
-      <c r="AF46" s="19"/>
-      <c r="AG46" s="19"/>
-      <c r="AH46" s="19"/>
-      <c r="AI46" s="19"/>
-      <c r="AJ46" s="19"/>
-      <c r="AK46" s="19"/>
-      <c r="AL46" s="19"/>
-      <c r="AM46" s="19"/>
-      <c r="AN46" s="19"/>
-      <c r="AO46" s="19"/>
-      <c r="AP46" s="19"/>
-      <c r="AQ46" s="20"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
-      <c r="AT46" s="19"/>
-      <c r="AU46" s="19"/>
-      <c r="AV46" s="19"/>
-      <c r="AW46" s="19"/>
-      <c r="AX46" s="19"/>
-      <c r="AY46" s="19"/>
-      <c r="AZ46" s="19"/>
-      <c r="BA46" s="19"/>
-      <c r="BB46" s="19"/>
-      <c r="BC46" s="19"/>
-      <c r="BD46" s="19"/>
-      <c r="BE46" s="19"/>
-      <c r="BF46" s="19"/>
-      <c r="BG46" s="19"/>
-      <c r="BH46" s="19"/>
-      <c r="BI46" s="19"/>
-      <c r="BJ46" s="19"/>
-      <c r="BK46" s="19"/>
-      <c r="BL46" s="19"/>
-      <c r="BM46" s="19"/>
-      <c r="BN46" s="19"/>
-      <c r="BO46" s="19"/>
-      <c r="BP46" s="19"/>
-      <c r="BQ46" s="19"/>
-      <c r="BR46" s="19"/>
-      <c r="BS46" s="19"/>
-      <c r="BT46" s="19"/>
-      <c r="BU46" s="19"/>
-      <c r="BV46" s="19"/>
-      <c r="BW46" s="19"/>
-      <c r="BX46" s="20"/>
-    </row>
-    <row r="47" spans="3:76">
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="22" t="s">
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19"/>
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19"/>
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19"/>
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19"/>
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19"/>
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19"/>
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19"/>
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19"/>
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19"/>
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19"/>
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="20"/>
+    </row>
+    <row r="48" spans="3:76">
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22"/>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22"/>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22"/>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22"/>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22"/>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22"/>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22"/>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22"/>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22"/>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22"/>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22"/>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22"/>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="23"/>
-    </row>
-    <row r="48" spans="3:76">
-      <c r="C48" s="24"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="25"/>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="25"/>
-      <c r="AP48" s="25"/>
-      <c r="AQ48" s="26"/>
-      <c r="AR48" s="25"/>
-      <c r="AS48" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="25"/>
-      <c r="AV48" s="25"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="25"/>
-      <c r="AY48" s="25"/>
-      <c r="AZ48" s="25"/>
-      <c r="BA48" s="25"/>
-      <c r="BB48" s="25"/>
-      <c r="BC48" s="25"/>
-      <c r="BD48" s="25"/>
-      <c r="BE48" s="25"/>
-      <c r="BF48" s="25"/>
-      <c r="BG48" s="25"/>
-      <c r="BH48" s="25"/>
-      <c r="BI48" s="25"/>
-      <c r="BJ48" s="25"/>
-      <c r="BK48" s="25"/>
-      <c r="BL48" s="25"/>
-      <c r="BM48" s="25"/>
-      <c r="BN48" s="25"/>
-      <c r="BO48" s="25"/>
-      <c r="BP48" s="25"/>
-      <c r="BQ48" s="25"/>
-      <c r="BR48" s="25"/>
-      <c r="BS48" s="25"/>
-      <c r="BT48" s="25"/>
-      <c r="BU48" s="25"/>
-      <c r="BV48" s="25"/>
-      <c r="BW48" s="25"/>
-      <c r="BX48" s="26"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+      <c r="AD48" s="22"/>
+      <c r="AE48" s="22"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="22"/>
+      <c r="AH48" s="22"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AK48" s="22"/>
+      <c r="AL48" s="22"/>
+      <c r="AM48" s="22"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
+      <c r="AQ48" s="23"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="22"/>
+      <c r="AU48" s="22"/>
+      <c r="AV48" s="22"/>
+      <c r="AW48" s="22"/>
+      <c r="AX48" s="22"/>
+      <c r="AY48" s="22"/>
+      <c r="AZ48" s="22"/>
+      <c r="BA48" s="22"/>
+      <c r="BB48" s="22"/>
+      <c r="BC48" s="22"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="22"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="22"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="22"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="22"/>
+      <c r="BL48" s="22"/>
+      <c r="BM48" s="22"/>
+      <c r="BN48" s="22"/>
+      <c r="BO48" s="22"/>
+      <c r="BP48" s="22"/>
+      <c r="BQ48" s="22"/>
+      <c r="BR48" s="22"/>
+      <c r="BS48" s="22"/>
+      <c r="BT48" s="22"/>
+      <c r="BU48" s="22"/>
+      <c r="BV48" s="22"/>
+      <c r="BW48" s="22"/>
+      <c r="BX48" s="23"/>
     </row>
     <row r="49" spans="3:76">
       <c r="C49" s="24"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
@@ -5974,7 +5998,7 @@
       <c r="Q49" s="26"/>
       <c r="R49" s="24"/>
       <c r="S49" s="25" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
@@ -6001,7 +6025,9 @@
       <c r="AP49" s="25"/>
       <c r="AQ49" s="26"/>
       <c r="AR49" s="25"/>
-      <c r="AS49" s="25"/>
+      <c r="AS49" s="25" t="s">
+        <v>58</v>
+      </c>
       <c r="AT49" s="25"/>
       <c r="AU49" s="25"/>
       <c r="AV49" s="25"/>
@@ -6035,130 +6061,210 @@
       <c r="BX49" s="26"/>
     </row>
     <row r="50" spans="3:76">
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
-      <c r="Z50" s="10"/>
-      <c r="AA50" s="10"/>
-      <c r="AB50" s="10"/>
-      <c r="AC50" s="10"/>
-      <c r="AD50" s="10"/>
-      <c r="AE50" s="10"/>
-      <c r="AF50" s="10"/>
-      <c r="AG50" s="10"/>
-      <c r="AH50" s="10"/>
-      <c r="AI50" s="10"/>
-      <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="10"/>
-      <c r="AP50" s="10"/>
-      <c r="AQ50" s="11"/>
-      <c r="AR50" s="10"/>
-      <c r="AS50" s="10"/>
-      <c r="AT50" s="10"/>
-      <c r="AU50" s="10"/>
-      <c r="AV50" s="10"/>
-      <c r="AW50" s="10"/>
-      <c r="AX50" s="10"/>
-      <c r="AY50" s="10"/>
-      <c r="AZ50" s="10"/>
-      <c r="BA50" s="10"/>
-      <c r="BB50" s="10"/>
-      <c r="BC50" s="10"/>
-      <c r="BD50" s="10"/>
-      <c r="BE50" s="10"/>
-      <c r="BF50" s="10"/>
-      <c r="BG50" s="10"/>
-      <c r="BH50" s="10"/>
-      <c r="BI50" s="10"/>
-      <c r="BJ50" s="10"/>
-      <c r="BK50" s="10"/>
-      <c r="BL50" s="10"/>
-      <c r="BM50" s="10"/>
-      <c r="BN50" s="10"/>
-      <c r="BO50" s="10"/>
-      <c r="BP50" s="10"/>
-      <c r="BQ50" s="10"/>
-      <c r="BR50" s="10"/>
-      <c r="BS50" s="10"/>
-      <c r="BT50" s="10"/>
-      <c r="BU50" s="10"/>
-      <c r="BV50" s="10"/>
-      <c r="BW50" s="10"/>
-      <c r="BX50" s="11"/>
-    </row>
-    <row r="53" spans="3:76">
-      <c r="C53" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="3:76" ht="18">
-      <c r="E54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>139</v>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="25"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="25"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="25"/>
+      <c r="AO50" s="25"/>
+      <c r="AP50" s="25"/>
+      <c r="AQ50" s="26"/>
+      <c r="AR50" s="25"/>
+      <c r="AS50" s="25"/>
+      <c r="AT50" s="25"/>
+      <c r="AU50" s="25"/>
+      <c r="AV50" s="25"/>
+      <c r="AW50" s="25"/>
+      <c r="AX50" s="25"/>
+      <c r="AY50" s="25"/>
+      <c r="AZ50" s="25"/>
+      <c r="BA50" s="25"/>
+      <c r="BB50" s="25"/>
+      <c r="BC50" s="25"/>
+      <c r="BD50" s="25"/>
+      <c r="BE50" s="25"/>
+      <c r="BF50" s="25"/>
+      <c r="BG50" s="25"/>
+      <c r="BH50" s="25"/>
+      <c r="BI50" s="25"/>
+      <c r="BJ50" s="25"/>
+      <c r="BK50" s="25"/>
+      <c r="BL50" s="25"/>
+      <c r="BM50" s="25"/>
+      <c r="BN50" s="25"/>
+      <c r="BO50" s="25"/>
+      <c r="BP50" s="25"/>
+      <c r="BQ50" s="25"/>
+      <c r="BR50" s="25"/>
+      <c r="BS50" s="25"/>
+      <c r="BT50" s="25"/>
+      <c r="BU50" s="25"/>
+      <c r="BV50" s="25"/>
+      <c r="BW50" s="25"/>
+      <c r="BX50" s="26"/>
+    </row>
+    <row r="51" spans="3:76">
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
+      <c r="AK51" s="10"/>
+      <c r="AL51" s="10"/>
+      <c r="AM51" s="10"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="10"/>
+      <c r="AS51" s="10"/>
+      <c r="AT51" s="10"/>
+      <c r="AU51" s="10"/>
+      <c r="AV51" s="10"/>
+      <c r="AW51" s="10"/>
+      <c r="AX51" s="10"/>
+      <c r="AY51" s="10"/>
+      <c r="AZ51" s="10"/>
+      <c r="BA51" s="10"/>
+      <c r="BB51" s="10"/>
+      <c r="BC51" s="10"/>
+      <c r="BD51" s="10"/>
+      <c r="BE51" s="10"/>
+      <c r="BF51" s="10"/>
+      <c r="BG51" s="10"/>
+      <c r="BH51" s="10"/>
+      <c r="BI51" s="10"/>
+      <c r="BJ51" s="10"/>
+      <c r="BK51" s="10"/>
+      <c r="BL51" s="10"/>
+      <c r="BM51" s="10"/>
+      <c r="BN51" s="10"/>
+      <c r="BO51" s="10"/>
+      <c r="BP51" s="10"/>
+      <c r="BQ51" s="10"/>
+      <c r="BR51" s="10"/>
+      <c r="BS51" s="10"/>
+      <c r="BT51" s="10"/>
+      <c r="BU51" s="10"/>
+      <c r="BV51" s="10"/>
+      <c r="BW51" s="10"/>
+      <c r="BX51" s="11"/>
+    </row>
+    <row r="54" spans="3:76">
+      <c r="C54" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="3:76" ht="18">
       <c r="E55" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="3:76" ht="18">
       <c r="E56" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="3:76" ht="18">
       <c r="E57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M57" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="3:76" ht="18">
+      <c r="E58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="3:76">
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="3:76" ht="18">
+      <c r="E61" s="2" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="3:76">
-      <c r="C59" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="3:76" ht="18">
-      <c r="E60" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -6166,11 +6272,11 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{6207D912-284E-4376-8C1A-B006CCC093C9}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{EDD902F4-9AA2-4258-90DB-4FE9B639F0D1}"/>
-    <hyperlink ref="M54" r:id="rId3" location="git_reset_w_hyphensoft" display="http://www-creators.com/archives/1282 - git_reset_w_hyphensoft" xr:uid="{AA0004C8-2528-4E40-89A8-5A83FE98D11D}"/>
-    <hyperlink ref="M55" r:id="rId4" xr:uid="{86145B8F-B7C9-4EA8-A267-2D75C6AD53CA}"/>
-    <hyperlink ref="M56" r:id="rId5" xr:uid="{348B918E-1D78-43A6-BCC9-C37143FE0D15}"/>
-    <hyperlink ref="M57" r:id="rId6" xr:uid="{6C75E8E2-CA73-4780-9F7C-2A17F9D509B3}"/>
-    <hyperlink ref="E60" r:id="rId7" xr:uid="{0B5E14BE-BB60-41C8-8DA8-D93F84517FC7}"/>
+    <hyperlink ref="M55" r:id="rId3" location="git_reset_w_hyphensoft" display="http://www-creators.com/archives/1282 - git_reset_w_hyphensoft" xr:uid="{AA0004C8-2528-4E40-89A8-5A83FE98D11D}"/>
+    <hyperlink ref="M56" r:id="rId4" xr:uid="{86145B8F-B7C9-4EA8-A267-2D75C6AD53CA}"/>
+    <hyperlink ref="M57" r:id="rId5" xr:uid="{348B918E-1D78-43A6-BCC9-C37143FE0D15}"/>
+    <hyperlink ref="M58" r:id="rId6" xr:uid="{6C75E8E2-CA73-4780-9F7C-2A17F9D509B3}"/>
+    <hyperlink ref="E61" r:id="rId7" xr:uid="{0B5E14BE-BB60-41C8-8DA8-D93F84517FC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
@@ -6258,7 +6364,7 @@
     </row>
     <row r="12" spans="2:25">
       <c r="S12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="2:25">
@@ -6266,15 +6372,15 @@
         <v>23</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:25">
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
